--- a/Функции.xlsx
+++ b/Функции.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860E83FE-EA3E-4FE5-A6BA-A4FD78C7B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502D0995-CB7D-4906-9CE3-67148B2C78C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>bool(x)</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>Итератор, возвращающий кортежи, состоящие из соответствующих элементов аргументов-последовательностей.</t>
+  </si>
+  <si>
+    <t>Принадлежит ли x объекту y.</t>
+  </si>
+  <si>
+    <t>in (x in y)</t>
   </si>
 </sst>
 </file>
@@ -785,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B69"/>
+  <dimension ref="A2:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B75" sqref="B74:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,294 +1054,302 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>134</v>
       </c>
     </row>
